--- a/BD_Encuesta_Numb3rs.xlsx
+++ b/BD_Encuesta_Numb3rs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deyner\Desktop\2020-2\EDAED\Taller 4\Taller_4_EDAED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deyner\Desktop\2020-2\EDAED\Taller 4\Taller-4-EDAED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA36559-54CE-408E-9D96-1C43095DB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC23847-C37E-4D2A-BFF3-FA02ACC9E094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>no escuche en que momento de la clase pasada mencionaron la serie, y no me llego el enlace del video.</t>
-  </si>
-  <si>
-    <t>No revisó correo</t>
   </si>
   <si>
     <t>predicciones matematicas</t>
@@ -1456,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1508,37 +1505,37 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
@@ -2142,7 +2139,7 @@
         <v>49</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -2165,7 +2162,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>24</v>
@@ -2177,16 +2174,16 @@
         <v>17</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -2203,7 +2200,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>65</v>
@@ -2223,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>37</v>
@@ -2243,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>49</v>
@@ -2254,19 +2251,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>49</v>
@@ -2286,13 +2283,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>15</v>
@@ -2304,16 +2301,16 @@
         <v>17</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -2330,7 +2327,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>49</v>
@@ -2341,7 +2338,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>35</v>
@@ -2350,13 +2347,13 @@
         <v>35</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -2373,13 +2370,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>15</v>
@@ -2391,16 +2388,16 @@
         <v>17</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -2417,13 +2414,13 @@
         <v>35</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
@@ -2440,25 +2437,25 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>27</v>
@@ -2475,19 +2472,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>49</v>
@@ -2498,16 +2495,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>37</v>
@@ -2527,34 +2524,34 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2571,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>65</v>
@@ -2591,25 +2588,25 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>19</v>
@@ -2635,10 +2632,10 @@
         <v>35</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -2655,13 +2652,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>15</v>
@@ -2673,7 +2670,7 @@
         <v>17</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>19</v>
@@ -2699,13 +2696,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>15</v>
@@ -2717,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>27</v>
@@ -2743,25 +2740,25 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>63</v>
@@ -2787,7 +2784,7 @@
         <v>35</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>37</v>
@@ -2807,13 +2804,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>24</v>
@@ -2825,16 +2822,16 @@
         <v>17</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -2857,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>24</v>
@@ -2869,7 +2866,7 @@
         <v>17</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>19</v>
@@ -2895,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>37</v>
@@ -2906,7 +2903,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
@@ -2915,25 +2912,25 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="O43" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>27</v>
@@ -2959,10 +2956,10 @@
         <v>35</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
@@ -2979,28 +2976,28 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>20</v>
@@ -3023,34 +3020,34 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -3067,25 +3064,25 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>63</v>
@@ -3111,13 +3108,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>15</v>
@@ -3129,16 +3126,16 @@
         <v>17</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -3155,7 +3152,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>37</v>
@@ -3175,13 +3172,13 @@
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>24</v>
@@ -3193,7 +3190,7 @@
         <v>17</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>63</v>
@@ -3210,7 +3207,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>35</v>
@@ -3219,7 +3216,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>37</v>
@@ -3239,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>37</v>
@@ -3259,7 +3256,7 @@
         <v>35</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>37</v>
@@ -3279,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>37</v>
@@ -3299,13 +3296,13 @@
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>24</v>
@@ -3317,10 +3314,10 @@
         <v>17</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>20</v>
@@ -3343,13 +3340,13 @@
         <v>35</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -3366,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>37</v>
@@ -3386,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>49</v>
@@ -3406,7 +3403,7 @@
         <v>35</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>37</v>
@@ -3426,13 +3423,13 @@
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>15</v>
@@ -3444,16 +3441,16 @@
         <v>17</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -3470,7 +3467,7 @@
         <v>35</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>49</v>
@@ -3481,19 +3478,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -3510,7 +3507,7 @@
         <v>35</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>49</v>
@@ -3530,13 +3527,13 @@
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>15</v>
@@ -3548,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>19</v>
@@ -3574,13 +3571,13 @@
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>15</v>
@@ -3592,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>19</v>
@@ -3618,13 +3615,13 @@
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>15</v>
@@ -3636,7 +3633,7 @@
         <v>17</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>27</v>
@@ -3653,7 +3650,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -3662,25 +3659,25 @@
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>19</v>
@@ -3706,25 +3703,25 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>63</v>
@@ -3750,13 +3747,13 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>24</v>
@@ -3768,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>19</v>
@@ -3794,13 +3791,13 @@
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>15</v>
@@ -3812,16 +3809,16 @@
         <v>17</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -3838,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>49</v>
@@ -3858,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>37</v>
@@ -3884,19 +3881,19 @@
         <v>13</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>19</v>
@@ -3922,25 +3919,25 @@
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>63</v>
@@ -3966,19 +3963,19 @@
         <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>19</v>
@@ -4004,19 +4001,19 @@
         <v>17</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>27</v>
@@ -4042,10 +4039,10 @@
         <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -4062,10 +4059,10 @@
         <v>35</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
@@ -4082,7 +4079,7 @@
         <v>35</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>37</v>
@@ -4102,10 +4099,10 @@
         <v>35</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
@@ -4122,19 +4119,19 @@
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>27</v>
@@ -4160,25 +4157,25 @@
         <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>19</v>
@@ -4204,13 +4201,13 @@
         <v>35</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
@@ -4227,10 +4224,10 @@
         <v>35</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -4247,7 +4244,7 @@
         <v>35</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>37</v>
@@ -4258,7 +4255,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -4267,34 +4264,34 @@
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -4302,7 +4299,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
@@ -4311,13 +4308,13 @@
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>15</v>
@@ -4329,7 +4326,7 @@
         <v>17</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>19</v>
@@ -4355,7 +4352,7 @@
         <v>35</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>37</v>
@@ -4375,7 +4372,7 @@
         <v>35</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>48</v>
@@ -4398,25 +4395,25 @@
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>19</v>
@@ -4442,22 +4439,22 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -4474,7 +4471,7 @@
         <v>35</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>37</v>
@@ -4494,25 +4491,25 @@
         <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>19</v>
@@ -4538,28 +4535,28 @@
         <v>11</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O94" s="1" t="s">
+      <c r="P94" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="Q94" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="Q94" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="R94" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -4567,7 +4564,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>35</v>
@@ -4576,7 +4573,7 @@
         <v>35</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>32</v>
@@ -4596,16 +4593,16 @@
         <v>35</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -4622,13 +4619,13 @@
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>15</v>
@@ -4640,16 +4637,16 @@
         <v>17</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R97" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
@@ -4666,28 +4663,28 @@
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P98" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>20</v>
@@ -4710,13 +4707,13 @@
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>24</v>
@@ -4728,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>19</v>
@@ -4754,7 +4751,7 @@
         <v>35</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>37</v>
@@ -4774,13 +4771,13 @@
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>24</v>
@@ -4792,16 +4789,16 @@
         <v>17</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -4818,25 +4815,25 @@
         <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>19</v>
@@ -4862,25 +4859,25 @@
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N103" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>27</v>
@@ -4912,19 +4909,19 @@
         <v>13</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N104" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>27</v>
@@ -4941,7 +4938,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -4950,13 +4947,13 @@
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>24</v>
@@ -4968,10 +4965,10 @@
         <v>17</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q105" s="1" t="s">
         <v>20</v>
@@ -4994,13 +4991,13 @@
         <v>35</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -5017,25 +5014,25 @@
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N107" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N107" s="3" t="s">
+      <c r="O107" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>27</v>
@@ -5061,13 +5058,13 @@
         <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>32</v>
@@ -5079,7 +5076,7 @@
         <v>17</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>19</v>
@@ -5105,13 +5102,13 @@
         <v>11</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>24</v>
@@ -5123,7 +5120,7 @@
         <v>17</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>63</v>
@@ -5149,34 +5146,34 @@
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="63" x14ac:dyDescent="0.25">
@@ -5193,34 +5190,34 @@
         <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N111" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R111" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="236.25" x14ac:dyDescent="0.25">
@@ -5237,34 +5234,34 @@
         <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N112" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
@@ -5272,7 +5269,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>11</v>
@@ -5281,28 +5278,28 @@
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N113" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P113" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>20</v>
@@ -5325,13 +5322,13 @@
         <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>15</v>
@@ -5343,7 +5340,7 @@
         <v>17</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>27</v>
@@ -5360,7 +5357,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
@@ -5369,13 +5366,13 @@
         <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>24</v>
@@ -5387,7 +5384,7 @@
         <v>17</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>27</v>
@@ -5413,25 +5410,25 @@
         <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N116" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>19</v>
@@ -5451,13 +5448,13 @@
         <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>15</v>
@@ -5469,10 +5466,10 @@
         <v>17</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>20</v>
@@ -5495,10 +5492,10 @@
         <v>35</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -5506,7 +5503,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
@@ -5515,13 +5512,13 @@
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>24</v>
@@ -5533,10 +5530,10 @@
         <v>53</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P119" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>41</v>
@@ -5550,7 +5547,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
@@ -5559,25 +5556,25 @@
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N120" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>19</v>
@@ -5594,7 +5591,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>35</v>
@@ -5603,10 +5600,10 @@
         <v>35</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
@@ -5623,28 +5620,28 @@
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R122" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
@@ -5661,28 +5658,28 @@
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>20</v>
@@ -5705,25 +5702,25 @@
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>53</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>63</v>

--- a/BD_Encuesta_Numb3rs.xlsx
+++ b/BD_Encuesta_Numb3rs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deyner\Desktop\2020-2\EDAED\Taller 4\Taller-4-EDAED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC23847-C37E-4D2A-BFF3-FA02ACC9E094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208792BE-E4DE-4F9E-9F48-17134939A696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -84,9 +84,6 @@
     <t>el solo se centro en un solo punto y no en dos como lo podría hacer  el lugar de trabajo y la zona donde podía vivir</t>
   </si>
   <si>
-    <t>Por utilizar solo un foco</t>
-  </si>
-  <si>
     <t>40000</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>había una anomalía en un dato</t>
   </si>
   <si>
-    <t>Una victima mintio generando un dato erroneo</t>
-  </si>
-  <si>
     <t>Por cuestiones personales apenas pude conectarme por primera vez hoy a la clase y ando desatrasándome de todo lo que se ha hecho y de todo lo que tenga que hacer, pido disculpas</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>1- fue porque el asesino se habia mudado 3 semanas antes 2)-por que charlie solo tomo datos solo para buscar su zona de vivir y  no su zona de trabajo</t>
   </si>
   <si>
-    <t>El asesino se habia mudado recientemente y no habia tenido encuenta otro foco</t>
-  </si>
-  <si>
     <t>sistema de riego (lo que regaba el cesped en el patio de la casa)</t>
   </si>
   <si>
@@ -807,9 +798,6 @@
     <t>No fue bien analizado el problema</t>
   </si>
   <si>
-    <t>No analizo el problema</t>
-  </si>
-  <si>
     <t>1.0E-7</t>
   </si>
   <si>
@@ -840,9 +828,6 @@
     <t>Había que generar el modelo considerando dos zonas calientes teniendo en cuenta los hábitos del asesino. También hubo una victima que mintió en su testimonio y alteró los patrones.</t>
   </si>
   <si>
-    <t xml:space="preserve">Habia un dato erroneo por una victima y habia dos focos </t>
-  </si>
-  <si>
     <t>Un aspersor de agua</t>
   </si>
   <si>
@@ -876,9 +861,6 @@
     <t>agujeros negros y el poder encontrar los puntos de partida</t>
   </si>
   <si>
-    <t>Agujeros negros y punto de origen</t>
-  </si>
-  <si>
     <t>la zona caliente no estaba reducida en su totalidad</t>
   </si>
   <si>
@@ -921,9 +903,6 @@
     <t>una distribucion normal</t>
   </si>
   <si>
-    <t>Distribucion normal</t>
-  </si>
-  <si>
     <t>El asesino se habia mudado</t>
   </si>
   <si>
@@ -1086,12 +1065,6 @@
     <t>Pregunta_Charlie</t>
   </si>
   <si>
-    <t>Charlie_Tecnica</t>
-  </si>
-  <si>
-    <t>Razon_No_Encontrar_A</t>
-  </si>
-  <si>
     <t>Ganar_Lot_Años</t>
   </si>
   <si>
@@ -1102,6 +1075,42 @@
   </si>
   <si>
     <t>Excusa_3</t>
+  </si>
+  <si>
+    <t>Respuesta1</t>
+  </si>
+  <si>
+    <t>Respuesta2</t>
+  </si>
+  <si>
+    <t>Por usar un solo foco</t>
+  </si>
+  <si>
+    <t>Habia un dato erroneo</t>
+  </si>
+  <si>
+    <t>Una victima dio un dato erroneo</t>
+  </si>
+  <si>
+    <t>Mal analisis del caso</t>
+  </si>
+  <si>
+    <t>Respuesta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El punto de origen </t>
+  </si>
+  <si>
+    <t>Distribución normal</t>
+  </si>
+  <si>
+    <t>Res_Tec_Charlie_2</t>
+  </si>
+  <si>
+    <t>Res_Tec_Charlie_1</t>
+  </si>
+  <si>
+    <t>1/10000000</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1150,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1168,7 +1189,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1451,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="M92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U96" sqref="U96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1466,23 +1493,23 @@
     <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
     <col min="12" max="12" width="20" style="3" customWidth="1"/>
     <col min="13" max="13" width="27.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="3"/>
-    <col min="19" max="1023" width="9.7109375" style="1"/>
-    <col min="1024" max="1025" width="12" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="9.7109375" style="1"/>
+    <col min="14" max="15" width="23.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="17.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="3"/>
+    <col min="22" max="1026" width="9.7109375" style="1"/>
+    <col min="1027" max="1028" width="12" style="1" customWidth="1"/>
+    <col min="1029" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1501,44 +1528,53 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>358</v>
+      <c r="H1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1566,131 +1602,134 @@
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1704,57 +1743,57 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="U6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>15</v>
@@ -1762,51 +1801,51 @@
       <c r="M7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="U7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1815,75 +1854,78 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="U10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1897,146 +1939,146 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -2045,109 +2087,109 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -2156,125 +2198,125 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="U19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -2283,13 +2325,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>15</v>
@@ -2297,71 +2339,71 @@
       <c r="M24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="P24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -2370,65 +2412,65 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="P27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -2437,85 +2479,88 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="N29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -2524,62 +2569,62 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="N32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="Q32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U32" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -2588,37 +2633,37 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="N34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="Q34" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2626,24 +2671,24 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -2652,42 +2697,42 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="P36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -2696,42 +2741,42 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -2740,62 +2785,62 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2804,42 +2849,42 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -2848,62 +2893,62 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>11</v>
@@ -2912,62 +2957,65 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>11</v>
@@ -2976,37 +3024,40 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="N45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+      <c r="Q45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3020,42 +3071,42 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
@@ -3064,42 +3115,42 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
@@ -3108,13 +3159,13 @@
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>15</v>
@@ -3122,48 +3173,48 @@
       <c r="M48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="P48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="126" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -3172,57 +3223,57 @@
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3230,64 +3281,64 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
@@ -3296,100 +3347,103 @@
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3397,24 +3451,24 @@
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
@@ -3423,97 +3477,97 @@
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="126" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3527,42 +3581,42 @@
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="P64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
@@ -3571,42 +3625,42 @@
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R65" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="P65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
@@ -3615,13 +3669,13 @@
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>15</v>
@@ -3629,28 +3683,28 @@
       <c r="M66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+      <c r="P66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -3659,42 +3713,42 @@
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="204.75" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3703,42 +3757,42 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+      <c r="Q68" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="126" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3747,42 +3801,45 @@
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="P69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -3791,82 +3848,82 @@
         <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="P70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3881,36 +3938,36 @@
         <v>13</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3919,42 +3976,42 @@
         <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P74" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="Q74" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -3963,25 +4020,25 @@
         <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="P75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4001,36 +4058,36 @@
         <v>17</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>11</v>
@@ -4039,13 +4096,13 @@
         <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4053,64 +4110,64 @@
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
@@ -4119,36 +4176,36 @@
         <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>11</v>
@@ -4157,37 +4214,37 @@
         <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N82" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="P82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4195,42 +4252,42 @@
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4238,24 +4295,24 @@
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -4264,42 +4321,42 @@
         <v>11</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T86" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="U86" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
@@ -4308,13 +4365,13 @@
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>15</v>
@@ -4322,71 +4379,71 @@
       <c r="M87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N87" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O87" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H89" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
@@ -4395,42 +4452,42 @@
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="Q90" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
@@ -4439,50 +4496,50 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N91" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="T91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
@@ -4491,42 +4548,42 @@
         <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N93" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O93" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -4535,82 +4592,82 @@
         <v>11</v>
       </c>
       <c r="K94" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="T94" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U94" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>11</v>
@@ -4619,42 +4676,45 @@
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O97" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="P97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
@@ -4663,42 +4723,45 @@
         <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N98" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N98" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O98" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
@@ -4707,62 +4770,62 @@
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N99" s="3" t="s">
+      <c r="N99" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O99" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="P99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -4771,37 +4834,37 @@
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O101" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P101" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4815,37 +4878,40 @@
         <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4859,42 +4925,42 @@
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N103" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R103" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="P103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>11</v>
@@ -4903,42 +4969,42 @@
         <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>11</v>
@@ -4947,65 +5013,68 @@
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N105" s="3" t="s">
+      <c r="N105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O105" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R105" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="P105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R105" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>11</v>
@@ -5014,42 +5083,42 @@
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>11</v>
@@ -5058,37 +5127,37 @@
         <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N108" s="3" t="s">
+      <c r="N108" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O108" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="P108" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="P108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5102,42 +5171,42 @@
         <v>11</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M109" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N109" s="3" t="s">
+      <c r="N109" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O109" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R109" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P109" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>11</v>
@@ -5146,42 +5215,42 @@
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N110" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N110" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O110" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R110" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="P110" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U110" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
@@ -5190,42 +5259,42 @@
         <v>11</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N111" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N111" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R111" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="P111" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U111" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>11</v>
@@ -5234,42 +5303,48 @@
         <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N112" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="P112" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q112" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U112" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>11</v>
@@ -5278,42 +5353,45 @@
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R113" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>11</v>
@@ -5322,42 +5400,42 @@
         <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N114" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O114" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P114" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R114" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="P114" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>11</v>
@@ -5366,42 +5444,42 @@
         <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M115" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N115" s="3" t="s">
+      <c r="N115" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O115" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R115" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="P115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>11</v>
@@ -5410,36 +5488,36 @@
         <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N116" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N116" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O116" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="P116" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>11</v>
@@ -5448,62 +5526,62 @@
         <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N117" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O117" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P117" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
@@ -5512,42 +5590,45 @@
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="P119" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R119" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>11</v>
@@ -5556,62 +5637,62 @@
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N120" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N120" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O120" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="P120" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R120" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P120" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>11</v>
@@ -5620,36 +5701,36 @@
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P122" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="R122" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>11</v>
@@ -5658,37 +5739,40 @@
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="N123" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P123" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R123" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q123" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R123" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5702,34 +5786,34 @@
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N124" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="P124" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="3" t="s">
-        <v>20</v>
+        <v>342</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q124" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
